--- a/report/reliability/comb/Graduação (licenciatura)-Presencial.xlsx
+++ b/report/reliability/comb/Graduação (licenciatura)-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7704895744575537</v>
+        <v>0.7390158970997609</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7838128046705863</v>
+        <v>0.7732884879799383</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8862852084967225</v>
+        <v>0.8867474307913628</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.23203051521166076</v>
+        <v>0.20784318235709037</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.625620858239349</v>
+        <v>3.4108920234783255</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.010037837583553103</v>
+        <v>0.01083188541621223</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.334164588528678</v>
+        <v>1.7670567171814056</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7365916445075219</v>
+        <v>0.6154367661130491</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.19633717191211114</v>
+        <v>0.13875553581531846</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7419646186199675</v>
+        <v>0.7385340127325406</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7531175421053548</v>
+        <v>0.766745357868907</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8600251999626092</v>
+        <v>0.8822974852070339</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.21711029917058833</v>
+        <v>0.21502751954669538</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.050510548735464</v>
+        <v>3.287160121932249</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.011324447746924732</v>
+        <v>0.011074637654750003</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.040151961373731955</v>
+        <v>0.057243916680894014</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.18328464809393083</v>
+        <v>0.17227707643698964</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7434440504774785</v>
+        <v>0.7126070784220039</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7561929846264687</v>
+        <v>0.7479435563643602</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8628923274104918</v>
+        <v>0.8699489294497058</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.21994693267235907</v>
+        <v>0.19825569018372674</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.10160469938866</v>
+        <v>2.9673653471265737</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.011265074648009332</v>
+        <v>0.011898421273882107</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.040550260780652866</v>
+        <v>0.05777437887119782</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.19536105101090978</v>
+        <v>0.11915186623061796</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7458491376121683</v>
+        <v>0.7162234624160746</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7560613594804826</v>
+        <v>0.7505940959856743</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8613446991617664</v>
+        <v>0.8704739421854917</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.21982448914098626</v>
+        <v>0.20050784692324292</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.0993915431778025</v>
+        <v>3.0095281783808985</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.011156365496609909</v>
+        <v>0.011739624068451877</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.040282615867357034</v>
+        <v>0.057501593057634554</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.18524111509730107</v>
+        <v>0.11915186623061796</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7473336781965009</v>
+        <v>0.7256577076958052</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7597963867234744</v>
+        <v>0.7483735181778245</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8642410814636374</v>
+        <v>0.8662868007219791</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.22333577806708757</v>
+        <v>0.19861865924027575</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.163134710420806</v>
+        <v>2.9741445048168695</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.011095166048806938</v>
+        <v>0.011534575708998997</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.04069098476826168</v>
+        <v>0.04758640841788569</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.19536105101090978</v>
+        <v>0.12799511034469085</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7504755179271889</v>
+        <v>0.7042221913518922</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7688189867429651</v>
+        <v>0.7453276046584913</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8463680065983802</v>
+        <v>0.8639318373494939</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.23214464476146526</v>
+        <v>0.19606679658707044</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.325614746260177</v>
+        <v>2.9266132423148097</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.010923073099343131</v>
+        <v>0.012261884674974856</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.03879664888288898</v>
+        <v>0.04750573624304425</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.20273311123720267</v>
+        <v>0.12540412880365212</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7513140349130665</v>
+        <v>0.7052600532868158</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7687520131588464</v>
+        <v>0.7454750128454464</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8464716258983475</v>
+        <v>0.8646562303690244</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.2320774898859968</v>
+        <v>0.1961892587237326</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.3243619702813203</v>
+        <v>2.9288873410011265</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.010887271903154363</v>
+        <v>0.012222434374868897</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03885264828113718</v>
+        <v>0.047711882506968825</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.20273311123720267</v>
+        <v>0.12799511034469085</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7728914414935859</v>
+        <v>0.738251186089465</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7903656015715803</v>
+        <v>0.7758040097134477</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8770812488218038</v>
+        <v>0.8862205449732187</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.25525768634982404</v>
+        <v>0.2238225958752081</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.7702095051993707</v>
+        <v>3.460383072515558</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.00993392953726191</v>
+        <v>0.011065844432185756</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.040248966781880294</v>
+        <v>0.05597296911985191</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.2064399655167079</v>
+        <v>0.17227707643698964</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7832382929378254</v>
+        <v>0.7343178888023386</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7910317026748087</v>
+        <v>0.7690129416837498</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8773069183386857</v>
+        <v>0.8754825429046128</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.25602358220016413</v>
+        <v>0.21718267706537628</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.785414882544718</v>
+        <v>3.3292468733502583</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.009405615280364803</v>
+        <v>0.010865177922599202</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.03991295035510616</v>
+        <v>0.055998269446543715</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.2064399655167079</v>
+        <v>0.17227707643698964</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7595176975100185</v>
+        <v>0.7469844119945557</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7743919811932979</v>
+        <v>0.7716220565189414</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8885139679678533</v>
+        <v>0.8824020034145605</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.23782951784520304</v>
+        <v>0.2197003076480212</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.432466564305882</v>
+        <v>3.3787065631534574</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.010614905566213091</v>
+        <v>0.010217468084722809</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.04832431484765057</v>
+        <v>0.056900824123852396</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.20173133743475277</v>
+        <v>0.17227707643698964</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.761014329236918</v>
+        <v>0.7231077444786946</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7752012327082506</v>
+        <v>0.7644552501974097</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8888368831268476</v>
+        <v>0.8891907226503644</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.2386712360924474</v>
+        <v>0.21288134238097656</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.448422969785126</v>
+        <v>3.2454777737058413</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.010544535707091972</v>
+        <v>0.011533189541008093</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.04766371523826365</v>
+        <v>0.06413555512840426</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.19475059201666417</v>
+        <v>0.12384827092125814</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7477615800166896</v>
+        <v>0.7286926908542142</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7618106361973501</v>
+        <v>0.7685194992858544</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8591917842793144</v>
+        <v>0.8906612172956938</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.225261559864403</v>
+        <v>0.21671111860098632</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.198340278655526</v>
+        <v>3.320018303549879</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.011067080465494093</v>
+        <v>0.011275352974052811</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.04264231765503902</v>
+        <v>0.06317542337267662</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.19475059201666417</v>
+        <v>0.14804403743112637</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7490987995275016</v>
+        <v>0.7096582702395681</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7634881248743025</v>
+        <v>0.7538931779054516</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8610454300118164</v>
+        <v>0.8625489410547466</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.2268829664894043</v>
+        <v>0.20336055599015615</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.2281175077088027</v>
+        <v>3.063276228953232</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.011020109656967874</v>
+        <v>0.012033781399967488</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.043009952408315795</v>
+        <v>0.05893624785413889</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.18328464809393083</v>
+        <v>0.11915186623061796</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7104864995786317</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7542094837914697</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8639267363865362</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.20363700187670616</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.068505227238278</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.012014218525167276</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.05943606898790507</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.11915186623061796</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>1203.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6370330523938895</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6697714745870484</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6560025062367002</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5464992689330599</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.2385702410640067</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.1845266754857386</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>1203.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.6192809776643603</v>
+        <v>0.3465999995521191</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6458758549851663</v>
+        <v>0.4480841264037186</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6269123277672279</v>
+        <v>0.39693582995324156</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.5135642994372455</v>
+        <v>0.32192980164274915</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.7348295926849544</v>
+        <v>0.9484621778886118</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.320014445562848</v>
+        <v>0.2211839550110294</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>1203.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.609606765748196</v>
+        <v>0.5693879866698893</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6469073114798346</v>
+        <v>0.6123260032366025</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6303070470849189</v>
+        <v>0.5902299352099775</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5236582695473989</v>
+        <v>0.45611168781939987</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.368246051537822</v>
+        <v>3.2385702410640067</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0814834665833464</v>
+        <v>1.1845266754857386</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>1203.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.588332309164459</v>
+        <v>0.5488262620156923</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.617328437635878</v>
+        <v>0.5902712564457314</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.5950589225134092</v>
+        <v>0.5674093703001432</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.4772508374877664</v>
+        <v>0.41728430652830195</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.7248545303408145</v>
+        <v>3.7348295926849544</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.3186007210359323</v>
+        <v>1.320014445562848</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>1203.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5768528350873313</v>
+        <v>0.6010041901245372</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5431231067317821</v>
+        <v>0.6087715478584969</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.564851719890431</v>
+        <v>0.6349636371652283</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.4436992231583599</v>
+        <v>0.567080136865146</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.7456359102244389</v>
+        <v>0.20781379883624274</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.5241168819977622</v>
+        <v>0.40591154816563885</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>1203.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.5784122331709506</v>
+        <v>0.6352088674757586</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5436888151173053</v>
+        <v>0.6337612316020956</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5654073562212607</v>
+        <v>0.6642264977781147</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.4383151041161292</v>
+        <v>0.49898935845590936</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.7755610972568578</v>
+        <v>0.7456359102244389</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.5964294332427975</v>
+        <v>1.5241168819977622</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>1203.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.3764592046312814</v>
+        <v>0.6349016080505249</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.34842031932793194</v>
+        <v>0.6325619938367285</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.286040769343026</v>
+        <v>0.6616379174984809</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.23316013318452236</v>
+        <v>0.49093033255157587</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.652535328345802</v>
+        <v>0.7755610972568578</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.3641352685818244</v>
+        <v>1.5964294332427975</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>1203.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.38095445663997485</v>
+        <v>0.3000919243504664</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.3419684615595729</v>
+        <v>0.361956381372349</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.2792455102612756</v>
+        <v>0.2982873176214864</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.19876224472863252</v>
+        <v>0.26517502084711536</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.7921862011637573</v>
+        <v>0.8985868661679135</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.7098244429958318</v>
+        <v>0.3020005367325693</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>1203.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.502875784997823</v>
+        <v>0.42719273833622534</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.49523409864907464</v>
+        <v>0.4269792661002749</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.39800503614709165</v>
+        <v>0.38871782299941215</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.3648299829877146</v>
+        <v>0.2731062524731492</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.256857855361596</v>
+        <v>2.652535328345802</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.4512691452740074</v>
+        <v>1.3641352685818244</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>1203.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.4840724926327656</v>
+        <v>0.42674125832401355</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.48814351784772747</v>
+        <v>0.40232480753665123</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.39018593086607833</v>
+        <v>0.34875049960040455</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.34892830523783036</v>
+        <v>0.2292815215090791</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.1537822111388194</v>
+        <v>2.7921862011637573</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.398998420828379</v>
+        <v>1.7098244429958318</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>1203.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.584409022008421</v>
+        <v>0.517657597527844</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.601105774667203</v>
+        <v>0.469101044599406</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5854355718516392</v>
+        <v>0.37457998521665486</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.47507680145627235</v>
+        <v>0.3657847863796395</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>1.8536990856192852</v>
+        <v>1.256857855361596</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.2932214928264665</v>
+        <v>1.4512691452740074</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>1203.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5724624747453542</v>
+        <v>0.473039371478945</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5874471487266939</v>
+        <v>0.431597107455067</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5691390965289133</v>
+        <v>0.33372361400801603</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.4676384280017977</v>
+        <v>0.32057765099047947</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.1537822111388194</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.398998420828379</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>1203.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.5922023133223734</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.5623354671487983</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5459952936356954</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.4712775142129518</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>1.8536990856192852</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.2932214928264665</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>1203.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5853554873094339</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5596283091955963</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.54113224863157</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.4703604733675133</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.713216957605985</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.2257836809938105</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.051537822111388194</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.07564422277639235</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.00914380714879468</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.37489609310058186</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.4239401496259352</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.06483790523690773</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.051537822111388194</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.00997506234413965</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.057356608478802994</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.29093931837073983</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.21363258520365752</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.3765586034912718</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.02826267664172901</v>
+        <v>0.051537822111388194</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.06317539484621779</v>
+        <v>0.9484621778886118</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.02493765586034913</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.3632585203657523</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.43640897755610975</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.08395677472984206</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.02826267664172901</v>
+        <v>0.051537822111388194</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.03408146300914381</v>
+        <v>0.07564422277639235</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.06899418121363259</v>
+        <v>0.00914380714879468</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.34995843724023273</v>
+        <v>0.37489609310058186</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.09060681629260182</v>
+        <v>0.4239401496259352</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.42809642560266004</v>
+        <v>0.06483790523690773</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.7921862011637573</v>
+        <v>0.051537822111388194</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.014131338320864505</v>
+        <v>0.00997506234413965</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0033250207813798837</v>
+        <v>0.057356608478802994</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.06650041562759768</v>
+        <v>0.29093931837073983</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.09393183707398171</v>
+        <v>0.21363258520365752</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.029925187032418952</v>
+        <v>0.3765586034912718</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.7921862011637573</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.00914380714879468</v>
+        <v>0.20781379883624274</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.012468827930174564</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.06982543640897755</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.04987531172069826</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.06650041562759768</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.10141313383208644</v>
+        <v>0.7921862011637573</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.16375727348295926</v>
+        <v>0.014131338320864505</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.032418952618453865</v>
+        <v>0.0033250207813798837</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.4172901080631754</v>
+        <v>0.06650041562759768</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.25353283458021614</v>
+        <v>0.09393183707398171</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.03158769742310889</v>
+        <v>0.029925187032418952</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.10141313383208644</v>
+        <v>0.7921862011637573</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.18121363258520365</v>
+        <v>0.00914380714879468</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.19035743973399832</v>
+        <v>0.012468827930174564</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.12136325852036575</v>
+        <v>0.06982543640897755</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.16209476309226933</v>
+        <v>0.04987531172069826</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.24355777223607647</v>
+        <v>0.06650041562759768</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.4945968412302577</v>
+        <v>0.10141313383208644</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.1396508728179551</v>
+        <v>0.8985868661679135</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.05652535328345802</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.23275145469659186</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.07647547797173733</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.2119700748129676</v>
+        <v>0.10141313383208644</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.13798836242726517</v>
+        <v>0.16375727348295926</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.07315045719035744</v>
+        <v>0.032418952618453865</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.4380714879467997</v>
+        <v>0.4172901080631754</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.13881961762261014</v>
+        <v>0.25353283458021614</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.03158769742310889</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.22111388196176227</v>
+        <v>0.10141313383208644</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.13881961762261014</v>
+        <v>0.18121363258520365</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.32252701579384874</v>
+        <v>0.19035743973399832</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.200332502078138</v>
+        <v>0.12136325852036575</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.1172069825436409</v>
+        <v>0.16209476309226933</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.24355777223607647</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.24438902743142144</v>
+        <v>0.4945968412302577</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.12385702410640066</v>
+        <v>0.1396508728179551</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.38403990024937656</v>
+        <v>0.05652535328345802</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.16957605985037408</v>
+        <v>0.23275145469659186</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.07813798836242726</v>
+        <v>0.07647547797173733</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.2119700748129676</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.13798836242726517</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.07315045719035744</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.4380714879467997</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.13881961762261014</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.22111388196176227</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.13881961762261014</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.32252701579384874</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.200332502078138</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.1172069825436409</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.24438902743142144</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.12385702410640066</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.38403990024937656</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.16957605985037408</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.07813798836242726</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8577922219726972</v>
+        <v>0.8770147975570013</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8610219500587069</v>
+        <v>0.984623079102708</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8717618641346762</v>
+        <v>0.9774177652594747</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6076654657280504</v>
+        <v>0.9552456068351288</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.195380856346869</v>
+        <v>64.03252547628718</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.006845851630251524</v>
+        <v>0.0011070993071821687</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.5166251039068994</v>
+        <v>0.5763369354391799</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>1.0299861467502316</v>
+        <v>1.1607550695835944</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5946651095325117</v>
+        <v>0.9555767356302076</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8141067457466559</v>
+        <v>0.9797074017731093</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8198047060386604</v>
+        <v>0.9802441763772383</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.771933964326826</v>
+        <v>0.9612538155407093</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6026245060181611</v>
+        <v>0.9612538155407093</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.549534496802935</v>
+        <v>49.61798582003173</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.009296462741549345</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.014716004420184076</v>
-      </c>
+        <v>0.0011539199951208579</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5760669592857973</v>
+        <v>0.9612538155407092</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.818154913329189</v>
+        <v>0.6237650434422692</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8243854606132949</v>
+        <v>0.9737833822644644</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7819470790213296</v>
+        <v>0.9489062693344693</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6101004437838458</v>
+        <v>0.9489062693344692</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.694289342398858</v>
+        <v>37.14374569929875</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.009243624070972201</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.016008120832804066</v>
-      </c>
+        <v>0.003668375283050781</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.613263259779226</v>
+        <v>0.9489062693344692</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8164648769808779</v>
+        <v>0.644323453251292</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8183724623441722</v>
+        <v>0.9772838040254777</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.774043607542312</v>
+        <v>0.9555767356302077</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6003076586067967</v>
+        <v>0.9555767356302076</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.505773039190424</v>
+        <v>43.02145505002534</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.009304675983191438</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.017445526587260837</v>
-      </c>
+        <v>0.0034172428077591023</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5760669592857973</v>
+        <v>0.9555767356302076</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8277031060167572</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8289366782607606</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.786065175111289</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6176292545033978</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>4.845788505874747</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.008534106252618592</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.015147793456806644</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.613263259779226</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>1203.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9698239158382871</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9829356030403633</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9686388177125916</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9615185093648216</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.20781379883624274</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.40591154816563885</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>1203.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8407654187481101</v>
+        <v>0.9897495427497982</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8445891263175469</v>
+        <v>0.9871142616021638</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7936159844365248</v>
+        <v>0.9789259651710226</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7147230784864179</v>
+        <v>0.968131037754777</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.2385702410640067</v>
+        <v>0.7456359102244389</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.1845266754857386</v>
+        <v>1.5241168819977622</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>1203.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8487477748186806</v>
+        <v>0.9897765987442513</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8379148870084878</v>
+        <v>0.9848568413315838</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7802832800397521</v>
+        <v>0.9737872078252694</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7068082061075047</v>
+        <v>0.9658090808362481</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.7348295926849544</v>
+        <v>0.7755610972568578</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.320014445562848</v>
+        <v>1.5964294332427975</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>1203.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8332329308776523</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8466575215544625</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7938620177419967</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7182250430752756</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.368246051537822</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0814834665833464</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>1203.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8361504291038991</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.83119344469184</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7697412925406574</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.6852674799294387</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.7248545303408145</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.3186007210359323</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.7921862011637573</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.20781379883624274</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.7921862011637573</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.014131338320864505</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0033250207813798837</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.06650041562759768</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.09393183707398171</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.029925187032418952</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.051537822111388194</v>
+        <v>0.7921862011637573</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.07564422277639235</v>
+        <v>0.00914380714879468</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.00914380714879468</v>
+        <v>0.012468827930174564</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.37489609310058186</v>
+        <v>0.06982543640897755</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.4239401496259352</v>
+        <v>0.04987531172069826</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.06483790523690773</v>
+        <v>0.06650041562759768</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.051537822111388194</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.00997506234413965</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.057356608478802994</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.29093931837073983</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.21363258520365752</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.3765586034912718</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.02826267664172901</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.06317539484621779</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.02493765586034913</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.3632585203657523</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.43640897755610975</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.08395677472984206</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.02826267664172901</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.03408146300914381</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.06899418121363259</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.34995843724023273</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.09060681629260182</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.42809642560266004</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.8045396327955605</v>
+        <v>0.7051287582584611</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.81673325432517</v>
+        <v>0.836787548230465</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.6902359567786027</v>
+        <v>0.7822944346394642</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.6902359567786027</v>
+        <v>0.6308593468034333</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>4.4565272947788275</v>
+        <v>5.126983506209774</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.01075067109531866</v>
+        <v>0.007934184681020357</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.7223607647547796</v>
+        <v>2.114436131892491</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.41458662536292</v>
+        <v>1.0110872530207466</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.6902359567786027</v>
+        <v>0.6535087211395165</v>
       </c>
     </row>
     <row r="7">
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
+        <v>0.8045396327955605</v>
+      </c>
+      <c r="C11" t="n" s="289">
+        <v>0.81673325432517</v>
+      </c>
+      <c r="D11" t="n" s="290">
         <v>0.6902359567786027</v>
-      </c>
-      <c r="C11" t="n" s="289">
-        <v>0.6902359567786027</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.476425676030073</v>
       </c>
       <c r="E11" t="n" s="291">
         <v>0.6902359567786027</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.6902359567786027</v>
-      </c>
+      <c r="F11" t="n" s="292">
+        <v>4.4565272947788275</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.01075067109531866</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.6902359567786027</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.476425676030073</v>
+        <v>0.3165150121377689</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.6902359567786027</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.476425676030073</v>
-      </c>
+        <v>0.7087055015512702</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.5488333624921804</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.5488333624921806</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>2.4329518934461043</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.011490960249805466</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.6902359567786027</v>
+        <v>0.5488333624921806</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.4324006722002116</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.7904508912286239</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.6535087211395165</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.6535087211395165</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>3.7721510526252247</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.01087858712358375</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.6535087211395165</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>1203.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8993148716727528</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9193029850866913</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7637609681073901</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.6902359567786027</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.652535328345802</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.3641352685818244</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>1203.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9371641183870985</v>
+        <v>0.7028353301577905</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9193029850866913</v>
+        <v>0.8454829547190879</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7637609681073901</v>
+        <v>0.7151625835537615</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.6902359567786028</v>
+        <v>0.6467907162219472</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.8985868661679135</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.3020005367325693</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>1203.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9038710738593352</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8997676564966989</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8369025041016614</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.7279008610447679</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.652535328345802</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.3641352685818244</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>1203.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9287519011221667</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8595826043319188</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7518424278898679</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.7016641807345043</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.7921862011637573</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.7098244429958318</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.10141313383208644</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.8985868661679135</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.10141313383208644</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.16375727348295926</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.032418952618453865</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.4172901080631754</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.25353283458021614</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.03158769742310889</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.10141313383208644</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.18121363258520365</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.19035743973399832</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.12136325852036575</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.16209476309226933</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.24355777223607647</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8940414389196298</v>
+        <v>0.7317082176633835</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8947501648255352</v>
+        <v>0.8644501801277991</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8095456215872655</v>
+        <v>0.8141929273490578</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8095456215872656</v>
+        <v>0.6800805799155341</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>8.501202527703473</v>
+        <v>6.377361334325788</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.006084596481308717</v>
+        <v>0.006221179295241425</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>1.783458021612635</v>
+        <v>2.6406206705458577</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.1980783332920695</v>
+        <v>0.8324540579825924</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8095456215872657</v>
+        <v>0.6598203559145088</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8095456215872657</v>
+        <v>0.849579980924434</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8095456215872657</v>
+        <v>0.8524414942716712</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6553641134311121</v>
+        <v>0.7428305310940518</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8095456215872657</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8095456215872657</v>
-      </c>
+        <v>0.742830531094052</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>5.7769729373724354</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.008561932796379962</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8095456215872657</v>
+        <v>0.7428305310940521</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6553641134311121</v>
+        <v>0.35402119175840774</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8095456215872657</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6553641134311121</v>
-      </c>
+        <v>0.7950503240466269</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.6598203559145087</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.6598203559145088</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>3.8792465533222096</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.009342531616750478</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8095456215872657</v>
+        <v>0.6598203559145088</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.3741016330705895</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.7786937154320246</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.6375908527380415</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.6375908527380414</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>3.5186245024724743</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.010310242949520385</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.6375908527380414</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>1203.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9538396786243162</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9511954640312541</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8558357713423697</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8095456215872658</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>1.8536990856192852</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.2932214928264665</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>1203.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9484795005052398</v>
+        <v>0.7397404143781756</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9511954640312541</v>
+        <v>0.8633905257059501</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8558357713423697</v>
+        <v>0.7418884620213351</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8095456215872658</v>
+        <v>0.6954143874375961</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.713216957605985</v>
+        <v>0.9484621778886118</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.2257836809938105</v>
+        <v>0.2211839550110294</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>1203.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9234137513891437</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8945865947933138</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.8207886839323202</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7602085448590558</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.2385702410640067</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.1845266754857386</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>1203.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9393346008835648</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.9029406684399593</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.8383392161761857</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7675840925009146</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.7348295926849544</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.320014445562848</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.22111388196176227</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.13881961762261014</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.32252701579384874</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.200332502078138</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.1172069825436409</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.051537822111388194</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9484621778886118</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.24438902743142144</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.12385702410640066</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.38403990024937656</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.16957605985037408</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.07813798836242726</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.051537822111388194</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.07564422277639235</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.00914380714879468</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.37489609310058186</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.4239401496259352</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.06483790523690773</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.051537822111388194</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.00997506234413965</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.057356608478802994</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.29093931837073983</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.21363258520365752</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.3765586034912718</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9797074017731093</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9802441763772383</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9612538155407093</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9612538155407093</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>49.61798582003173</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0011539199951208579</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.7605985037406484</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.5450937780362108</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9612538155407092</v>
+      <c r="A6" t="n" s="491">
+        <v>0.5560746813773796</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.5563447589206116</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.3853723126476134</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.3853723126476134</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.254002449214972</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.02557785189355379</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.7053200332502079</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.1861955403962305</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.3853723126476135</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9612538155407092</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9612538155407092</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9240088978915719</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9612538155407092</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9612538155407092</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9612538155407092</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.3853723126476135</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.3853723126476135</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.14851181935536995</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.3853723126476135</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.3853723126476135</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.3853723126476135</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9240088978915719</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9612538155407092</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9240088978915719</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9612538155407092</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.14851181935536995</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.3853723126476135</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.14851181935536995</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.3853723126476135</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>1203.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9898074826990242</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9902660792788748</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9708920417410685</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9612538155407093</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.7456359102244389</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.5241168819977622</v>
+      <c r="C17" t="n" s="545">
+        <v>0.838986631763147</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8322776918335651</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.5166643649425531</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.3853723126476134</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.256857855361596</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.4512691452740074</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>1203.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9907141705289445</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9902660792788748</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9708920417410685</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9612538155407093</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.7755610972568578</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.5964294332427975</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8254445835138681</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8322776918335651</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.516664364942553</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.3853723126476135</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.1537822111388194</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.398998420828379</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.7921862011637573</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.014131338320864505</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.0033250207813798837</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.06650041562759768</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.09393183707398171</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.029925187032418952</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.4945968412302577</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.1396508728179551</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.05652535328345802</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.23275145469659186</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.07647547797173733</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.7921862011637573</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.00914380714879468</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.012468827930174564</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.06982543640897755</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.04987531172069826</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.06650041562759768</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.2119700748129676</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.13798836242726517</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.07315045719035744</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.4380714879467997</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.13881961762261014</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.5560746813773796</v>
+        <v>0.8940414389196298</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.5563447589206116</v>
+        <v>0.8947501648255352</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.3853723126476134</v>
+        <v>0.8095456215872655</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.3853723126476134</v>
+        <v>0.8095456215872656</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.254002449214972</v>
+        <v>8.501202527703473</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.02557785189355379</v>
+        <v>0.006084596481308717</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.7053200332502079</v>
+        <v>1.783458021612635</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.1861955403962305</v>
+        <v>1.1980783332920695</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.3853723126476135</v>
+        <v>0.8095456215872657</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.3853723126476135</v>
+        <v>0.8095456215872657</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.3853723126476135</v>
+        <v>0.8095456215872657</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.14851181935536995</v>
+        <v>0.6553641134311121</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.3853723126476135</v>
+        <v>0.8095456215872657</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.3853723126476135</v>
+        <v>0.8095456215872657</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.3853723126476135</v>
+        <v>0.8095456215872657</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.14851181935536995</v>
+        <v>0.6553641134311121</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.3853723126476135</v>
+        <v>0.8095456215872657</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.14851181935536995</v>
+        <v>0.6553641134311121</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.3853723126476135</v>
+        <v>0.8095456215872657</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>1203.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.838986631763147</v>
+        <v>0.9538396786243162</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8322776918335651</v>
+        <v>0.9511954640312541</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.5166643649425531</v>
+        <v>0.8558357713423697</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.3853723126476134</v>
+        <v>0.8095456215872658</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.256857855361596</v>
+        <v>1.8536990856192852</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.4512691452740074</v>
+        <v>1.2932214928264665</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>1203.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8254445835138681</v>
+        <v>0.9484795005052398</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8322776918335651</v>
+        <v>0.9511954640312541</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.516664364942553</v>
+        <v>0.8558357713423697</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.3853723126476135</v>
+        <v>0.8095456215872658</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.1537822111388194</v>
+        <v>1.713216957605985</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.398998420828379</v>
+        <v>1.2257836809938105</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.4945968412302577</v>
+        <v>0.22111388196176227</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.1396508728179551</v>
+        <v>0.13881961762261014</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.05652535328345802</v>
+        <v>0.32252701579384874</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.23275145469659186</v>
+        <v>0.200332502078138</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.07647547797173733</v>
+        <v>0.1172069825436409</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.2119700748129676</v>
+        <v>0.24438902743142144</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.13798836242726517</v>
+        <v>0.12385702410640066</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.07315045719035744</v>
+        <v>0.38403990024937656</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.4380714879467997</v>
+        <v>0.16957605985037408</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.13881961762261014</v>
+        <v>0.07813798836242726</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.8031804995045954</v>
+        <v>0.772508062817475</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8107570997702673</v>
+        <v>0.8037601789577797</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.8967477882069057</v>
+        <v>0.8976434994653193</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.2999264827346298</v>
+        <v>0.29056910914560385</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>4.284214090917247</v>
+        <v>4.095805706961248</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.008757437818220264</v>
+        <v>0.009500249887798374</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.256525353283458</v>
+        <v>1.6628428927680798</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.8095705995903439</v>
+        <v>0.712468627506019</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.21868494996501137</v>
+        <v>0.20581618205678665</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7759098121473705</v>
+        <v>0.7596892789631362</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7814863592364634</v>
+        <v>0.7786205844907326</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.869188931197798</v>
+        <v>0.8746667536668845</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.2843723896594884</v>
+        <v>0.28098544169619555</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.576373339924097</v>
+        <v>3.517131810559585</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.010004559566181851</v>
+        <v>0.010305965715245259</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.037447698840717095</v>
+        <v>0.04516058316676938</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.21222682987692215</v>
+        <v>0.2148227778008535</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7787147849475747</v>
+        <v>0.7370315870079531</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7853278281719404</v>
+        <v>0.7751993475579032</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8726450989727239</v>
+        <v>0.8718534452232506</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.28900212223209054</v>
+        <v>0.2770146875605898</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.65826563119203</v>
+        <v>3.4483856658626726</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.009879500073541334</v>
+        <v>0.010857981304290385</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.03732617461383453</v>
+        <v>0.04545738496784929</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.2148227778008535</v>
+        <v>0.20726673556460298</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7802317166421397</v>
+        <v>0.7392671080627626</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7851238752499047</v>
+        <v>0.7755773620623279</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.87081185603817</v>
+        <v>0.8729480971931999</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.28875368776903343</v>
+        <v>0.27744959751315207</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.653844167950336</v>
+        <v>3.455878467473168</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.009823447489197938</v>
+        <v>0.010752992854179105</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.03696424466339917</v>
+        <v>0.04569087902726612</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.21702375838290655</v>
+        <v>0.21004958542884594</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7826505949072526</v>
+        <v>0.7752515789861729</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7889632532209994</v>
+        <v>0.8001860185762717</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8738626419174671</v>
+        <v>0.893870625726563</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.29348101836458984</v>
+        <v>0.3079401073919629</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.7385112558013787</v>
+        <v>4.004654793797367</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.009706687908969535</v>
+        <v>0.009786503889787098</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.037133013567878716</v>
+        <v>0.05934909135490387</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.22133889536885598</v>
+        <v>0.2148227778008535</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7839059081488627</v>
+        <v>0.7464790868919189</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7920820426634027</v>
+        <v>0.7781389987070835</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8680854844012136</v>
+        <v>0.8795094662491935</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.2974013661654809</v>
+        <v>0.28042176686287446</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.809589382321148</v>
+        <v>3.507326633218109</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.00963551778582856</v>
+        <v>0.01049193148738175</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.03923401555976315</v>
+        <v>0.064119555365409</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.2148227778008535</v>
+        <v>0.18901762005529749</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7852601261890817</v>
+        <v>0.7524391260631866</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7941505772593304</v>
+        <v>0.7817348634377659</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8702737843712315</v>
+        <v>0.8801310163727853</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.30004230122301395</v>
+        <v>0.28466875170704853</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>3.857919865336742</v>
+        <v>3.581583736873475</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.009600493600515346</v>
+        <v>0.010210159538458741</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.03935313651331138</v>
+        <v>0.06287329518448019</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.21168704087697393</v>
+        <v>0.20297697655628416</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7874207260654649</v>
+        <v>0.7621989809023075</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.7995567825953805</v>
+        <v>0.79962517532503</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8526944868193757</v>
+        <v>0.9036356935569294</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.3071030289752903</v>
+        <v>0.3071938556262793</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>3.9889440657968285</v>
+        <v>3.9906469119666563</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.00940374635835346</v>
+        <v>0.009949129429854632</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.0321406314925868</v>
+        <v>0.07111987626404705</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.23710476673130793</v>
+        <v>0.2115001389366623</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7890740196729019</v>
+        <v>0.7655942216700503</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.799602159829183</v>
+        <v>0.8019507873455299</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8527820832429462</v>
+        <v>0.9046109141593346</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.30716328641326923</v>
+        <v>0.3103051934239227</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>3.990073741052351</v>
+        <v>4.049250065662555</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.009322473245566364</v>
+        <v>0.009765360861773138</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.032141804825433745</v>
+        <v>0.07030628959521505</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.23710476673130793</v>
+        <v>0.20297697655628416</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7984598131602381</v>
+        <v>0.7437401881417034</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8064524164098418</v>
+        <v>0.7854558413571356</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9020550412988091</v>
+        <v>0.8694052861511723</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.3164568097334163</v>
+        <v>0.2891582071741975</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>4.166688115918433</v>
+        <v>3.6610451029087456</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.009092009892406432</v>
+        <v>0.010603578811562419</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.04509311630251715</v>
+        <v>0.06507156578927017</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.22133889536885598</v>
+        <v>0.20297697655628416</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7978346970270853</v>
+        <v>0.744806126723259</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.8057523945370499</v>
+        <v>0.786595905407766</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9018582606602586</v>
+        <v>0.8713643139045777</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.3154888168106249</v>
+        <v>0.29055348249981616</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>4.148068608705379</v>
+        <v>3.6859457027325075</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.009108410412967078</v>
+        <v>0.010600724214884906</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.04512893412649827</v>
+        <v>0.06540682559550261</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.21168704087697393</v>
+        <v>0.18901762005529749</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>1203.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6741555881456461</v>
+        <v>0.6561501731979038</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7002848722482627</v>
+        <v>0.6586404584213548</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6803001532492637</v>
+        <v>0.6822886309401359</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5814397335570576</v>
+        <v>0.6218263594309236</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.2385702410640067</v>
+        <v>0.20781379883624274</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.1845266754857386</v>
+        <v>0.40591154816563885</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>1203.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6519457504379861</v>
+        <v>0.6890179846234868</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6728819814955543</v>
+        <v>0.6824151022642563</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6472885130425751</v>
+        <v>0.710451371325077</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5418849720799698</v>
+        <v>0.5482401873540993</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.7348295926849544</v>
+        <v>0.7456359102244389</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.320014445562848</v>
+        <v>1.5241168819977622</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>1203.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6428753414242984</v>
+        <v>0.6869468767663456</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6743524384482192</v>
+        <v>0.6798111059268388</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6513000450473466</v>
+        <v>0.7062007890567005</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5536768029397767</v>
+        <v>0.5372277128273422</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.368246051537822</v>
+        <v>0.7755610972568578</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.0814834665833464</v>
+        <v>1.5964294332427975</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>1203.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6231687312970287</v>
+        <v>0.3837852077808411</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6463718754609366</v>
+        <v>0.4972510711825569</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6177406306106903</v>
+        <v>0.43675373794275435</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.5072172084890387</v>
+        <v>0.3568437286249129</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.7248545303408145</v>
+        <v>0.9484621778886118</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.3186007210359323</v>
+        <v>0.2211839550110294</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>1203.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6123050603563774</v>
+        <v>0.6137182072451408</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6231677571202399</v>
+        <v>0.6620154264873066</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.6014218413081208</v>
+        <v>0.6316554248128429</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.49678395118547786</v>
+        <v>0.4930659056369831</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>1.8536990856192852</v>
+        <v>3.2385702410640067</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.2932214928264665</v>
+        <v>1.1845266754857386</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>1203.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5981659747361371</v>
+        <v>0.5876868923273573</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.607536345644155</v>
+        <v>0.6365868684280113</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.5829877258850085</v>
+        <v>0.6054413660952082</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.48693134645513186</v>
+        <v>0.44532629164429627</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>1.713216957605985</v>
+        <v>3.7348295926849544</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.2257836809938105</v>
+        <v>1.320014445562848</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>1203.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.6108031052303345</v>
+        <v>0.5527476384697186</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.5657446550451671</v>
+        <v>0.5017192072948312</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.5844886957080518</v>
+        <v>0.3916559939387054</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.47081091406649755</v>
+        <v>0.3863340942738925</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.7456359102244389</v>
+        <v>1.256857855361596</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.5241168819977622</v>
+        <v>1.4512691452740074</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>1203.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.6110504993973541</v>
+        <v>0.5228964086033199</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.5653879977298512</v>
+        <v>0.483090265414338</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.5840836004015068</v>
+        <v>0.3704028136692845</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.46331521247448926</v>
+        <v>0.35773084734722804</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.7755610972568578</v>
+        <v>2.1537822111388194</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.5964294332427975</v>
+        <v>1.398998420828379</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>1203.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5245113928147984</v>
+        <v>0.6361727631841356</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.5103806295382578</v>
+        <v>0.6097065325686497</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.40207026117103384</v>
+        <v>0.5863076168231189</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.3757834238234947</v>
+        <v>0.5076911373886838</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.256857855361596</v>
+        <v>1.8536990856192852</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.4512691452740074</v>
+        <v>1.2932214928264665</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>1203.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.5195813132785491</v>
+        <v>0.626133436435379</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5161100758716427</v>
+        <v>0.6013524081891225</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.40798300154631123</v>
+        <v>0.5754120541392211</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.3760654863174617</v>
+        <v>0.503252175323511</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.1537822111388194</v>
+        <v>1.713216957605985</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.398998420828379</v>
+        <v>1.2257836809938105</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.051537822111388194</v>
+        <v>0.7921862011637573</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.07564422277639235</v>
+        <v>0.20781379883624274</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.00914380714879468</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.37489609310058186</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.4239401496259352</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.06483790523690773</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.051537822111388194</v>
+        <v>0.7921862011637573</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.00997506234413965</v>
+        <v>0.014131338320864505</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.057356608478802994</v>
+        <v>0.0033250207813798837</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.29093931837073983</v>
+        <v>0.06650041562759768</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.21363258520365752</v>
+        <v>0.09393183707398171</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.3765586034912718</v>
+        <v>0.029925187032418952</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.02826267664172901</v>
+        <v>0.7921862011637573</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.06317539484621779</v>
+        <v>0.00914380714879468</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.02493765586034913</v>
+        <v>0.012468827930174564</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.3632585203657523</v>
+        <v>0.06982543640897755</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.43640897755610975</v>
+        <v>0.04987531172069826</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.08395677472984206</v>
+        <v>0.06650041562759768</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.02826267664172901</v>
+        <v>0.051537822111388194</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.03408146300914381</v>
+        <v>0.9484621778886118</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.06899418121363259</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.34995843724023273</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.09060681629260182</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.42809642560266004</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.22111388196176227</v>
+        <v>0.051537822111388194</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.13881961762261014</v>
+        <v>0.07564422277639235</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.32252701579384874</v>
+        <v>0.00914380714879468</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.200332502078138</v>
+        <v>0.37489609310058186</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.1172069825436409</v>
+        <v>0.4239401496259352</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.06483790523690773</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.24438902743142144</v>
+        <v>0.051537822111388194</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.12385702410640066</v>
+        <v>0.00997506234413965</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.38403990024937656</v>
+        <v>0.057356608478802994</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.16957605985037408</v>
+        <v>0.29093931837073983</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.07813798836242726</v>
+        <v>0.21363258520365752</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.3765586034912718</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.7921862011637573</v>
+        <v>0.4945968412302577</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.014131338320864505</v>
+        <v>0.1396508728179551</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.0033250207813798837</v>
+        <v>0.05652535328345802</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.06650041562759768</v>
+        <v>0.23275145469659186</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.09393183707398171</v>
+        <v>0.07647547797173733</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.029925187032418952</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.7921862011637573</v>
+        <v>0.2119700748129676</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.00914380714879468</v>
+        <v>0.13798836242726517</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.012468827930174564</v>
+        <v>0.07315045719035744</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.06982543640897755</v>
+        <v>0.4380714879467997</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.04987531172069826</v>
+        <v>0.13881961762261014</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.06650041562759768</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.4945968412302577</v>
+        <v>0.22111388196176227</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.1396508728179551</v>
+        <v>0.13881961762261014</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.05652535328345802</v>
+        <v>0.32252701579384874</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.23275145469659186</v>
+        <v>0.200332502078138</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.07647547797173733</v>
+        <v>0.1172069825436409</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.2119700748129676</v>
+        <v>0.24438902743142144</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.13798836242726517</v>
+        <v>0.12385702410640066</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.07315045719035744</v>
+        <v>0.38403990024937656</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.4380714879467997</v>
+        <v>0.16957605985037408</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.13881961762261014</v>
+        <v>0.07813798836242726</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
